--- a/Ganadería/17.2.xlsx
+++ b/Ganadería/17.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C1288-5567-447E-AA69-E4FD6E758AC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13048F70-A830-432D-85A6-6FE00BA8F354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2615B68D-0FE0-463D-B57A-10CC0F9B333D}"/>
   </bookViews>

--- a/Ganadería/17.2.xlsx
+++ b/Ganadería/17.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/Tablas Madre/Ganadería/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34183CBF-C3DC-3E42-8A2F-BB7A962176F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABC091-2899-AC4A-A833-F1BC47ADDC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{2615B68D-0FE0-463D-B57A-10CC0F9B333D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{2615B68D-0FE0-463D-B57A-10CC0F9B333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Directorio_Apicultura" sheetId="2" r:id="rId1"/>
@@ -3222,14 +3222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3288,29 +3287,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E252801F-8C80-47F9-9CBA-BDF65906B260}" name="Tabla_Auxiliar_Apicultura" displayName="Tabla_Auxiliar_Apicultura" ref="C1:V4" totalsRowShown="0">
-  <autoFilter ref="C1:V4" xr:uid="{FAA0A430-BFAE-4EA3-AA53-B9880765C37B}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{830233C3-BE42-4A49-B93A-ABCFDA22FDA2}" name="Descripción Corta"/>
-    <tableColumn id="2" xr3:uid="{0E0E6F40-833A-49ED-AEFF-2B287C78CE49}" name="Industria"/>
-    <tableColumn id="3" xr3:uid="{A4EFEA88-9AEC-44D0-B254-906A67D60A50}" name="Sector"/>
-    <tableColumn id="4" xr3:uid="{E10CB34C-EC3B-4E84-BB6E-7248C3699370}" name="Producto"/>
-    <tableColumn id="5" xr3:uid="{285C9C66-6150-4A69-909A-B43CC2657B55}" name="Categoría"/>
-    <tableColumn id="6" xr3:uid="{3417CDE2-604E-446C-938E-9CCE4CE64BBC}" name="Parámetro"/>
-    <tableColumn id="7" xr3:uid="{AC37B3FE-13AB-4E60-8730-42A63141B89F}" name="Detalle"/>
-    <tableColumn id="8" xr3:uid="{9067FBFF-F7D1-4F05-A23D-2AE935A7083B}" name="Territorio"/>
-    <tableColumn id="9" xr3:uid="{E052B992-A065-4DCE-AB31-C00B6D988A67}" name="Temporalidad"/>
-    <tableColumn id="10" xr3:uid="{4B9043DE-B210-4B64-8744-5CB95613A05B}" name="Fuente"/>
-    <tableColumn id="11" xr3:uid="{942B49CE-F395-4BEA-AFB1-82068F16DDDD}" name="Nombre"/>
-    <tableColumn id="12" xr3:uid="{6CEF6891-177C-4E95-A913-668CBEA21B36}" name="Título"/>
-    <tableColumn id="13" xr3:uid="{EBD8DF24-C30C-4EB2-8D82-5E22CFA49368}" name="Tags"/>
-    <tableColumn id="14" xr3:uid="{E5CBF392-0E5A-4996-87D8-A0B54929A77B}" name="ISO País"/>
-    <tableColumn id="15" xr3:uid="{7BA76BBC-7905-45EE-927B-BC8F77058ABE}" name="Nivel Administrativo"/>
-    <tableColumn id="16" xr3:uid="{F107D9F2-B723-4170-A59C-55BD071FC6B3}" name="Descripción larga"/>
-    <tableColumn id="17" xr3:uid="{9769566A-2A41-4D02-A2A6-829F35570236}" name="Fecha"/>
-    <tableColumn id="18" xr3:uid="{2E1A58A5-A1D6-4912-8A40-F9F4432FA4B2}" name="Idioma"/>
-    <tableColumn id="19" xr3:uid="{546DAF01-0A56-454B-93DE-3E0345705EC2}" name="Responsable"/>
-    <tableColumn id="20" xr3:uid="{A58EA391-BF83-4B5C-AD21-EC3686BE44F9}" name="Unidad Medida"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2736005E-8965-EA4A-A063-B202A6ADBCE1}" name="Tabla_Auxiliar_DirApicultura" displayName="Tabla_Auxiliar_DirApicultura" ref="A1:V4" totalsRowShown="0">
+  <autoFilter ref="A1:V4" xr:uid="{71E92D2E-6BDF-7D44-8C93-74CAC462755C}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{C9DC0E5F-11B2-5A4E-AC33-54691055CFDE}" name="Id_Auxiliar"/>
+    <tableColumn id="2" xr3:uid="{51E02B69-1DB6-7C44-B661-3ED1B892BF59}" name="Tipo de Recinto"/>
+    <tableColumn id="3" xr3:uid="{20BFD357-FD82-9044-9942-D32984723F15}" name="Descripción Corta"/>
+    <tableColumn id="4" xr3:uid="{D84480CB-3253-3F44-9E4D-A471B037EA01}" name="Industria"/>
+    <tableColumn id="5" xr3:uid="{1AB8404B-7A1A-CA4E-91D0-CC624EA665C1}" name="Sector"/>
+    <tableColumn id="6" xr3:uid="{E266761E-8807-944B-8926-E66CF94C4E9B}" name="Producto"/>
+    <tableColumn id="7" xr3:uid="{B4B887BD-EE23-2E40-A2D3-78374CACF2C9}" name="Categoría"/>
+    <tableColumn id="8" xr3:uid="{149FF750-E818-9642-B606-B563F4074B76}" name="Parámetro"/>
+    <tableColumn id="9" xr3:uid="{4AF6EDD4-1BBC-2345-A4E2-3639005B6F5F}" name="Detalle"/>
+    <tableColumn id="10" xr3:uid="{B1DA8F18-8F5A-894B-BC93-38CD4E0B9785}" name="Territorio"/>
+    <tableColumn id="11" xr3:uid="{BE87861E-4076-934C-B198-E227C769859E}" name="Temporalidad"/>
+    <tableColumn id="12" xr3:uid="{0BEDFA9D-17A4-C945-95E1-AB6FE6FC1593}" name="Fuente"/>
+    <tableColumn id="13" xr3:uid="{EB60A9DB-2716-4B46-8B0A-A326C346A048}" name="Nombre"/>
+    <tableColumn id="14" xr3:uid="{1689323A-AFD7-3F4C-9B8C-F3BD1BD17E01}" name="Título"/>
+    <tableColumn id="15" xr3:uid="{DAAC74B5-A577-D84B-B72E-95CF51EAF039}" name="Tags"/>
+    <tableColumn id="16" xr3:uid="{D4222873-2931-B744-907A-CAD69EF9F949}" name="ISO País"/>
+    <tableColumn id="17" xr3:uid="{CE6C3408-E18B-B54F-BC18-05FC482F152E}" name="Nivel Administrativo"/>
+    <tableColumn id="18" xr3:uid="{7662745F-E5DC-B74C-884F-A377441636E0}" name="Descripción larga"/>
+    <tableColumn id="19" xr3:uid="{A6A1195E-4CC9-C441-BDD3-F0D74AC4E4E6}" name="Fecha"/>
+    <tableColumn id="20" xr3:uid="{78F7AFF9-85EB-7140-9FF4-B98AD9219773}" name="Idioma"/>
+    <tableColumn id="21" xr3:uid="{B0B01892-A919-4345-A6C7-0C1E83956603}" name="Responsable"/>
+    <tableColumn id="22" xr3:uid="{BB2275EF-66F0-4047-93F8-58DC4C69FCB4}" name="Unidad Medida"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3615,7 +3616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0BD35C-C38C-423C-AE04-7A3B91F34A7B}">
   <dimension ref="A1:T621"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -3739,7 +3740,7 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -36558,13 +36559,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD32406E-7E72-49DE-BBCE-E3C9861FC438}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
@@ -36649,7 +36651,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>721</v>
       </c>
       <c r="C2" t="s">
@@ -36700,7 +36702,7 @@
       <c r="R2" t="s">
         <v>1032</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2">
         <v>44321</v>
       </c>
       <c r="T2" t="s">
@@ -36717,7 +36719,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>723</v>
       </c>
       <c r="C3" t="s">
@@ -36768,7 +36770,7 @@
       <c r="R3" t="s">
         <v>1032</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3">
         <v>44321</v>
       </c>
       <c r="T3" t="s">
@@ -36785,7 +36787,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>722</v>
       </c>
       <c r="C4" t="s">
@@ -36836,7 +36838,7 @@
       <c r="R4" t="s">
         <v>1032</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>44321</v>
       </c>
       <c r="T4" t="s">
